--- a/BackTest/2020-01-25 BackTest FCT.xlsx
+++ b/BackTest/2020-01-25 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,11 +583,17 @@
         <v>-1683370.877485921</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>-1579028.540085921</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,17 @@
         <v>-1546586.109385921</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +700,17 @@
         <v>-1543946.445585921</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +739,17 @@
         <v>-1543401.345585921</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +782,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +819,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +856,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +889,15 @@
         <v>-1544515.839585921</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +926,15 @@
         <v>-1544515.839585921</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +963,15 @@
         <v>-1547614.411885921</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1000,17 @@
         <v>-1547614.411885921</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27.58</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1039,17 @@
         <v>-1547614.411885921</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27.58</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1263,17 @@
         <v>-1548870.119485921</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1302,17 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.41</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1341,17 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1417,17 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1456,17 @@
         <v>-1533252.119485921</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27.8</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1495,17 @@
         <v>-1533820.019485921</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>27.82</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1538,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1571,17 @@
         <v>-1563724.987385921</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>27.69</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1610,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>27.68</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1649,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1688,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1727,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1766,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1805,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1844,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1883,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1922,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1961,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +2004,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2037,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2076,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2115,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2154,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1971,9 +2195,15 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,15 +2232,17 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>27.7</v>
       </c>
-      <c r="J49" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,15 +2271,15 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>27.7</v>
       </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2078,15 +2310,15 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>27.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2117,11 +2349,17 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.82</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2388,17 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27.82</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2427,17 @@
         <v>-1561799.722385921</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27.82</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2466,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27.98</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2505,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>28</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2544,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2583,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>28</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2622,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2661,17 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,15 +2700,15 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28</v>
-      </c>
-      <c r="J61" t="n">
-        <v>28</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,17 +2737,13 @@
         <v>-1448468.592527856</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>28</v>
-      </c>
-      <c r="J62" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2492,14 +2774,10 @@
         <v>-1446729.192527856</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,14 +2811,10 @@
         <v>-1446729.192527856</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J64" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2577,9 +2851,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>28</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2616,9 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>28</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2655,9 +2925,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>28</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,9 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>28</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,12 +2996,10 @@
         <v>-1507490.119627856</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>28</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,12 +3033,10 @@
         <v>-1497266.541327856</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>28</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,12 +3070,10 @@
         <v>-1507544.018127856</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>28</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,12 +3107,10 @@
         <v>-1511430.752927856</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>28</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2886,14 +3144,10 @@
         <v>-1511430.752927856</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,14 +3181,10 @@
         <v>-1511430.752927856</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,14 +3218,10 @@
         <v>-1511430.752927856</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,9 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>28</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,14 +3292,10 @@
         <v>-1509930.552927856</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,14 +3329,10 @@
         <v>-1509930.552927856</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,9 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>28</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,9 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>28</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,14 +3440,10 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,14 +3477,10 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,12 +3514,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,14 +3553,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>28.4</v>
       </c>
-      <c r="J84" t="n">
-        <v>28</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,14 +3592,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>28.4</v>
       </c>
-      <c r="J85" t="n">
-        <v>28</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3411,14 +3631,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>28.4</v>
       </c>
-      <c r="J86" t="n">
-        <v>28</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,14 +3670,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>28.4</v>
       </c>
-      <c r="J87" t="n">
-        <v>28</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,14 +3709,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>28.4</v>
       </c>
-      <c r="J88" t="n">
-        <v>28</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3534,14 +3748,12 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>28.4</v>
       </c>
-      <c r="J89" t="n">
-        <v>28</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,12 +3787,12 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,14 +3826,12 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>28</v>
       </c>
-      <c r="J91" t="n">
-        <v>28</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,14 +3865,12 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>28</v>
       </c>
-      <c r="J92" t="n">
-        <v>28</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,14 +3904,12 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>28</v>
       </c>
-      <c r="J93" t="n">
-        <v>28</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,14 +3943,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>28</v>
       </c>
-      <c r="J94" t="n">
-        <v>28</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,14 +3982,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>27.8</v>
       </c>
-      <c r="J95" t="n">
-        <v>28</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,14 +4021,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>27.8</v>
       </c>
-      <c r="J96" t="n">
-        <v>28</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,14 +4060,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>27.8</v>
       </c>
-      <c r="J97" t="n">
-        <v>28</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,12 +4099,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,12 +4138,12 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,12 +4177,12 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,12 +4216,12 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,12 +4255,12 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>28</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,14 +4294,12 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>28</v>
       </c>
-      <c r="J103" t="n">
-        <v>28</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,14 +4333,12 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>27.8</v>
       </c>
-      <c r="J104" t="n">
-        <v>28</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,12 +4372,12 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,12 +4411,12 @@
         <v>-1570659.714810889</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,12 +4450,12 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,12 +4489,12 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,10 +4530,10 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>28</v>
-      </c>
+      <c r="I109" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,10 +4569,10 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>28</v>
-      </c>
+      <c r="I110" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,12 +4606,12 @@
         <v>-1611163.258410889</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,12 +4645,12 @@
         <v>-1629068.373910889</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,12 +4684,12 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,12 +4723,12 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,12 +4762,12 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4607,12 +4801,12 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,12 +4840,12 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,10 +4881,10 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28</v>
-      </c>
+      <c r="I118" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,12 +4918,12 @@
         <v>-1578728.473910889</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,12 +4957,12 @@
         <v>-1578728.473910889</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>28</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,9 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>28</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,9 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>28</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>28</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,9 +5110,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>28</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,9 +5147,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>28</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,12 +5181,12 @@
         <v>-1612589.790110889</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5039,9 +5223,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5078,9 +5260,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,12 +5294,12 @@
         <v>-1802589.790110889</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,12 +5333,12 @@
         <v>-1802274.190110889</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,9 +5375,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,9 +5412,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5273,9 +5449,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,9 +5486,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5351,9 +5523,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,12 +5557,12 @@
         <v>-1802590.690110889</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,9 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,9 +5636,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5507,9 +5673,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,12 +5707,12 @@
         <v>-1869476.794310889</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,9 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,9 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>28</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,9 +5823,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>28</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,9 +5860,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>28</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5741,9 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>28</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,9 +5934,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>28</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,9 +5971,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>28</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,14 +6005,10 @@
         <v>-1865404.308310889</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J148" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,14 +6042,12 @@
         <v>-1865404.308310889</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>27.65</v>
       </c>
-      <c r="J149" t="n">
-        <v>28</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5940,9 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>28</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,14 +6118,10 @@
         <v>-1865066.508310889</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6017,14 +6155,10 @@
         <v>-1865085.508310889</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J152" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,14 +6192,10 @@
         <v>-1864767.808310889</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="J153" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,9 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>28</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,9 +6269,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>28</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,14 +6303,10 @@
         <v>-1864463.908310889</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J156" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,14 +6340,10 @@
         <v>-1864463.908310889</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="J157" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,14 +6377,10 @@
         <v>-1890362.450510889</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="J158" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,14 +6414,10 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="J159" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6341,14 +6451,10 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J160" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,14 +6488,10 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,14 +6525,10 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J162" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,14 +6562,10 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J163" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,14 +6599,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J164" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,14 +6636,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J165" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,14 +6673,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J166" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,14 +6710,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J167" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,14 +6747,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J168" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,14 +6784,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J169" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6754,9 +6824,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>28</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,14 +6858,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J171" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,14 +6895,10 @@
         <v>-1890345.050510889</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J172" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6875,9 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>28</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,14 +6969,10 @@
         <v>-1903863.423010889</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="J174" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,14 +7006,12 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>27.5</v>
       </c>
-      <c r="J175" t="n">
-        <v>28</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,14 +7045,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J176" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7037,9 +7085,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>28</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7076,9 +7122,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>28</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,9 +7159,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>28</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,9 +7196,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>28</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7193,9 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>28</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7229,14 +7267,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J182" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,14 +7304,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J183" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7311,14 +7341,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J184" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,14 +7378,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J185" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7396,9 +7418,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>28</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,9 +7455,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>28</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,9 +7492,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>28</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,14 +7526,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J189" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,14 +7563,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J190" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,14 +7600,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J191" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,14 +7637,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,14 +7674,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J193" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,14 +7711,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J194" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,14 +7748,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J195" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,14 +7785,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J196" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,14 +7822,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J197" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,14 +7859,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J198" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7920,14 +7896,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J199" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,14 +7933,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J200" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,14 +7970,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J201" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,14 +8007,10 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J202" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8084,14 +8044,10 @@
         <v>-1883756.813210889</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="J203" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,14 +8081,10 @@
         <v>-1795750.302410889</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J204" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,14 +8118,10 @@
         <v>-1789293.502410889</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>28</v>
-      </c>
-      <c r="J205" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8207,14 +8155,10 @@
         <v>-1789293.502410889</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="J206" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,14 +8192,10 @@
         <v>-1788749.630110889</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="J207" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,14 +8229,10 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="J208" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8330,14 +8266,10 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J209" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,14 +8303,10 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J210" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8417,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,14 +8451,10 @@
         <v>-1784791.010810889</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>28</v>
-      </c>
-      <c r="J214" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,14 +8488,10 @@
         <v>-1785183.710810889</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J215" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,14 +8525,10 @@
         <v>-1767694.38167786</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>28</v>
-      </c>
-      <c r="J216" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8652,14 +8562,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="J217" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8693,14 +8599,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>28</v>
-      </c>
-      <c r="J218" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,14 +8636,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>28</v>
-      </c>
-      <c r="J219" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,14 +8673,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>28</v>
-      </c>
-      <c r="J220" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,14 +8710,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>28</v>
-      </c>
-      <c r="J221" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,14 +8747,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>28</v>
-      </c>
-      <c r="J222" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8898,14 +8784,10 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>28</v>
-      </c>
-      <c r="J223" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,14 +8821,10 @@
         <v>-1767120.55377786</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>28</v>
-      </c>
-      <c r="J224" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,14 +8858,10 @@
         <v>-1768913.25377786</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="J225" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9024,9 +8898,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,9 +8935,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,14 +8969,10 @@
         <v>-1770761.85377786</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J228" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,12 +9006,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,14 +9045,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>28</v>
       </c>
-      <c r="J230" t="n">
-        <v>28</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9220,14 +9084,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>28</v>
       </c>
-      <c r="J231" t="n">
-        <v>28</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,14 +9123,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>28</v>
       </c>
-      <c r="J232" t="n">
-        <v>28</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,14 +9162,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>28</v>
       </c>
-      <c r="J233" t="n">
-        <v>28</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,14 +9201,12 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>28</v>
       </c>
-      <c r="J234" t="n">
-        <v>28</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,14 +9240,10 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>28</v>
-      </c>
-      <c r="J235" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,14 +9277,10 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>28</v>
-      </c>
-      <c r="J236" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9466,14 +9314,10 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>28</v>
-      </c>
-      <c r="J237" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9507,14 +9351,10 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>28</v>
-      </c>
-      <c r="J238" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,14 +9388,10 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J239" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,9 +9428,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>28</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9465,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>28</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,9 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>28</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9706,14 +9536,10 @@
         <v>-1768037.910663574</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J243" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,14 +9573,10 @@
         <v>-1735418.059849289</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>28</v>
-      </c>
-      <c r="J244" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9788,14 +9610,10 @@
         <v>-1735418.059849289</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J245" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9650,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>28</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,9 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>28</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,9 +9724,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>28</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,9 +9761,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>28</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9988,9 +9798,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>28</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,9 +9835,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>28</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,9 +9872,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>28</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10105,9 +9909,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>28</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,9 +9946,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>28</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,14 +9980,10 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>28</v>
-      </c>
-      <c r="J255" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,9 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>28</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,9 +10057,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>28</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,9 +10094,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>28</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,9 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>28</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10380,9 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>28</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10419,9 +10205,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>28</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10458,9 +10242,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>28</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10497,9 +10279,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>28</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,9 +10316,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>28</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10575,9 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>28</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10614,9 +10390,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>28</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10653,9 +10427,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>28</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,9 +10464,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>28</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10731,9 +10501,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>28</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10770,9 +10538,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>28</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,9 +10575,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>28</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10848,9 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>28</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,9 +10649,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>28</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10926,9 +10686,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>28</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,9 +10723,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>28</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11004,9 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>28</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11043,9 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>28</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,9 +10834,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>28</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11121,9 +10871,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>28</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,9 +10908,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>28</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11199,9 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>28</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11238,9 +10982,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>28</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11277,9 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>28</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11316,9 +11056,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>28</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11355,9 +11093,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>28</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11394,9 +11130,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>28</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,9 +11167,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>28</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11472,9 +11204,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>28</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11511,9 +11241,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>28</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,9 +11278,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>28</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11589,9 +11315,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>28</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11628,9 +11352,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>28</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11667,9 +11389,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>28</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11706,9 +11426,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>28</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11745,9 +11463,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>28</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11784,9 +11500,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>28</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,9 +11537,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>28</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11862,9 +11574,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>28</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11901,9 +11611,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>28</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11940,9 +11648,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>28</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11979,9 +11685,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>28</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,9 +11722,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>28</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12057,9 +11759,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>28</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,9 +11796,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>28</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12135,9 +11833,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>28</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12174,9 +11870,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>28</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12213,9 +11907,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>28</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12252,9 +11944,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>28</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,9 +11981,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>28</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12330,9 +12018,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>28</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12369,9 +12055,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>28</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12408,9 +12092,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>28</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12447,9 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>28</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12486,9 +12166,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>28</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12525,9 +12203,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>28</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12564,9 +12240,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>28</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12603,9 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>28</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,9 +12314,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>28</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,9 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>28</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12720,9 +12388,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>28</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12759,9 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>28</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12798,9 +12462,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>28</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12837,9 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>28</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12876,9 +12536,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>28</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12915,9 +12573,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>28</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12954,9 +12610,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>28</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12993,9 +12647,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>28</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13032,9 +12684,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>28</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,9 +12721,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>28</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13110,9 +12758,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>28</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,9 +12795,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>28</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,20 +12829,16 @@
         <v>1960577.674350712</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>28</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
@@ -13227,14 +12867,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>28</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13266,14 +12900,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>28</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13305,14 +12933,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>28</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13344,14 +12966,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>28</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13383,14 +12999,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>28</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13422,14 +13032,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>28</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13461,14 +13065,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>28</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13500,14 +13098,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>28</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13536,17 +13128,11 @@
         <v>1881617.976250713</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>28</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13575,17 +13161,11 @@
         <v>1881617.976250713</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>28</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13617,14 +13197,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>28</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13653,17 +13227,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>28</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13692,17 +13260,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>28</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13731,17 +13293,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>28</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13770,17 +13326,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>28</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13809,17 +13359,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>28</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13848,17 +13392,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>28</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13887,17 +13425,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>28</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13926,17 +13458,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>28</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13965,17 +13491,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>28</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14004,17 +13524,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>28</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14043,17 +13557,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>28</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14082,17 +13590,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>28</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14121,17 +13623,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>28</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14160,17 +13656,11 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>28</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14199,17 +13689,11 @@
         <v>1886966.274650712</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>28</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14238,17 +13722,11 @@
         <v>1886373.474650712</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>28</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14277,17 +13755,11 @@
         <v>1882371.271850712</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>28</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14316,17 +13788,11 @@
         <v>1855977.743150712</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>28</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14355,17 +13821,11 @@
         <v>1856562.743150712</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>28</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14394,17 +13854,11 @@
         <v>1856453.997630999</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>28</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14433,17 +13887,11 @@
         <v>1856453.997630999</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>28</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14472,17 +13920,11 @@
         <v>1856453.997630999</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>28</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14514,14 +13956,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>28</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14553,14 +13989,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>28</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14592,14 +14022,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>28</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14628,17 +14052,11 @@
         <v>1853036.985130999</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>28</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14670,14 +14088,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>28</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14709,14 +14121,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>28</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14748,14 +14154,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>28</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14787,14 +14187,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>28</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14826,14 +14220,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>28</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14865,14 +14253,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>28</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14904,14 +14286,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>28</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14943,14 +14319,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>28</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14982,14 +14352,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>28</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15021,14 +14385,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>28</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15057,19 +14415,13 @@
         <v>1850265.891630999</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>28</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
-        <v>0.9914285714285713</v>
+        <v>1</v>
       </c>
       <c r="M380" t="inlineStr"/>
     </row>
@@ -15096,7 +14448,7 @@
         <v>1850265.891630999</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15129,7 +14481,7 @@
         <v>1820203.151630999</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15195,17 +14547,11 @@
         <v>1840408.037030999</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15234,17 +14580,11 @@
         <v>1834678.922730999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15277,11 +14617,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15310,17 +14646,11 @@
         <v>1834678.922730999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>27.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15349,17 +14679,11 @@
         <v>1834678.922730999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>27.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15388,17 +14712,11 @@
         <v>1834678.922730999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>27.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15427,17 +14745,11 @@
         <v>1837946.735730999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>27.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15466,17 +14778,11 @@
         <v>1838605.235730999</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15509,11 +14815,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15546,11 +14848,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15583,11 +14881,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15620,11 +14914,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15657,11 +14947,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15694,11 +14980,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15731,11 +15013,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +15046,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15805,11 +15079,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15842,11 +15112,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15879,11 +15145,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15916,11 +15178,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15953,11 +15211,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15990,11 +15244,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +15277,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16064,11 +15310,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16101,11 +15343,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16138,11 +15376,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16175,11 +15409,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16212,11 +15442,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16249,11 +15475,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16286,11 +15508,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16323,11 +15541,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16360,11 +15574,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16397,11 +15607,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16434,11 +15640,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16471,11 +15673,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16508,11 +15706,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16545,11 +15739,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16582,11 +15772,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16619,11 +15805,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16656,11 +15838,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16693,11 +15871,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +15904,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16767,11 +15937,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16804,11 +15970,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16841,11 +16003,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16878,11 +16036,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +16069,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16952,11 +16102,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16989,11 +16135,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17026,11 +16168,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17063,11 +16201,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17100,11 +16234,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17137,11 +16267,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17174,11 +16300,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +16333,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17244,17 +16362,11 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17283,16 +16395,14 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
       <c r="M440" t="inlineStr"/>
     </row>
     <row r="441">
@@ -17318,7 +16428,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17351,7 +16461,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17384,7 +16494,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17417,7 +16527,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17450,7 +16560,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17483,7 +16593,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17516,7 +16626,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17549,7 +16659,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17582,7 +16692,7 @@
         <v>1736544.138130999</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17615,7 +16725,7 @@
         <v>1740048.938130999</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17648,7 +16758,7 @@
         <v>1725107.160530999</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17681,7 +16791,7 @@
         <v>1696120.213330999</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17714,7 +16824,7 @@
         <v>1701384.832730999</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17747,7 +16857,7 @@
         <v>1701384.832730999</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17780,7 +16890,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17813,7 +16923,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17846,7 +16956,7 @@
         <v>1701364.032730999</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17879,7 +16989,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17912,7 +17022,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17945,7 +17055,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17978,7 +17088,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18011,7 +17121,7 @@
         <v>1683870.980030999</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18044,7 +17154,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18077,7 +17187,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18110,7 +17220,7 @@
         <v>1676618.341230999</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18143,7 +17253,7 @@
         <v>1679873.541230999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18176,7 +17286,7 @@
         <v>1646628.298030999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18209,7 +17319,7 @@
         <v>1649788.598030999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18242,7 +17352,7 @@
         <v>1652968.398030999</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18275,7 +17385,7 @@
         <v>1652111.613830999</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18374,7 +17484,7 @@
         <v>1657416.213830999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18407,7 +17517,7 @@
         <v>1657416.213830999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18506,7 +17616,7 @@
         <v>1643232.526930999</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18638,7 +17748,7 @@
         <v>1643232.526930999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18671,7 +17781,7 @@
         <v>1643232.526930999</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18704,7 +17814,7 @@
         <v>1643232.526930999</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18935,7 +18045,7 @@
         <v>1658290.163230999</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18968,7 +18078,7 @@
         <v>1663980.567730999</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19001,7 +18111,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19034,7 +18144,7 @@
         <v>1667264.367730999</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19067,7 +18177,7 @@
         <v>1617264.367730999</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19100,7 +18210,7 @@
         <v>1620537.767730999</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19133,7 +18243,7 @@
         <v>1615098.288630999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19166,7 +18276,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19199,7 +18309,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19232,7 +18342,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19265,7 +18375,7 @@
         <v>1618441.888630999</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19298,7 +18408,7 @@
         <v>1617508.688630999</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19364,7 +18474,7 @@
         <v>1617508.688630999</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19397,7 +18507,7 @@
         <v>1617508.688630999</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19463,7 +18573,7 @@
         <v>1630664.158930999</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19496,7 +18606,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19529,7 +18639,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19562,7 +18672,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19595,7 +18705,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19628,7 +18738,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19661,7 +18771,7 @@
         <v>1637161.558930999</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19694,7 +18804,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19727,7 +18837,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19760,7 +18870,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19793,7 +18903,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19826,7 +18936,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19859,7 +18969,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19892,7 +19002,7 @@
         <v>1640308.100630999</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19925,7 +19035,7 @@
         <v>1640308.100630999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20024,7 +19134,7 @@
         <v>1629777.249330999</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20057,7 +19167,7 @@
         <v>1629777.249330999</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20090,7 +19200,7 @@
         <v>1630665.185930999</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20156,7 +19266,7 @@
         <v>1627221.693030999</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20420,7 +19530,7 @@
         <v>1543266.220330999</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20552,7 +19662,7 @@
         <v>1520619.520330999</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20585,7 +19695,7 @@
         <v>1521352.120330999</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20618,7 +19728,7 @@
         <v>1521320.354130999</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20651,7 +19761,7 @@
         <v>1521320.354130999</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20684,7 +19794,7 @@
         <v>1515753.034230999</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20717,7 +19827,7 @@
         <v>1547100.859130999</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20750,7 +19860,7 @@
         <v>1547100.859130999</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20783,7 +19893,7 @@
         <v>1547100.859130999</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20816,7 +19926,7 @@
         <v>1547100.859130999</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20849,7 +19959,7 @@
         <v>1547118.859130999</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20882,7 +19992,7 @@
         <v>1547118.859130999</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20915,7 +20025,7 @@
         <v>1547113.800730999</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20948,7 +20058,7 @@
         <v>1547113.800730999</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20981,7 +20091,7 @@
         <v>1547113.800730999</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21014,7 +20124,7 @@
         <v>1547113.800730999</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21047,7 +20157,7 @@
         <v>1547113.800730999</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21080,7 +20190,7 @@
         <v>1547841.000730999</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21113,7 +20223,7 @@
         <v>1544841.000730999</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21146,7 +20256,7 @@
         <v>1545570.000730999</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21179,7 +20289,7 @@
         <v>1545570.000730999</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21212,7 +20322,7 @@
         <v>1545570.000730999</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21245,7 +20355,7 @@
         <v>1545570.000730999</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21278,7 +20388,7 @@
         <v>1545570.000730999</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21311,7 +20421,7 @@
         <v>1548731.600730999</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21344,7 +20454,7 @@
         <v>1548731.600730999</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21377,7 +20487,7 @@
         <v>1548731.600730999</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21410,7 +20520,7 @@
         <v>1548731.600730999</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21476,7 +20586,7 @@
         <v>1547149.859330999</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21509,7 +20619,7 @@
         <v>1547149.859330999</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21542,7 +20652,7 @@
         <v>1547149.859330999</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21575,7 +20685,7 @@
         <v>1542129.928730999</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21608,7 +20718,7 @@
         <v>1502883.677930999</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21674,7 +20784,7 @@
         <v>1450678.585230999</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21707,7 +20817,7 @@
         <v>1432983.022330999</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21740,7 +20850,7 @@
         <v>1399717.779130999</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21773,7 +20883,7 @@
         <v>1399717.779130999</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21806,7 +20916,7 @@
         <v>1398865.350630999</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21839,7 +20949,7 @@
         <v>1397254.520030999</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21905,7 +21015,7 @@
         <v>1398052.320030999</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21938,7 +21048,7 @@
         <v>1398842.820030999</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22103,7 +21213,7 @@
         <v>1439950.163230999</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22136,7 +21246,7 @@
         <v>1439950.163230999</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22169,7 +21279,7 @@
         <v>1420580.450730999</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22202,7 +21312,7 @@
         <v>1424681.655630999</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22235,7 +21345,7 @@
         <v>1269297.971630999</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22268,7 +21378,7 @@
         <v>1269297.971630999</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22301,7 +21411,7 @@
         <v>1340067.437530999</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22334,7 +21444,7 @@
         <v>1340067.437530999</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22367,7 +21477,7 @@
         <v>1340067.437530999</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22400,7 +21510,7 @@
         <v>1314700.754530999</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22433,7 +21543,7 @@
         <v>1365434.120630999</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22466,7 +21576,7 @@
         <v>1268812.120530999</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22499,7 +21609,7 @@
         <v>1268812.120530999</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22532,7 +21642,7 @@
         <v>1268812.120530999</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22565,7 +21675,7 @@
         <v>1268812.120530999</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22598,7 +21708,7 @@
         <v>1274630.590030999</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22631,7 +21741,7 @@
         <v>1273777.690030999</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22664,7 +21774,7 @@
         <v>1273777.690030999</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22730,7 +21840,7 @@
         <v>1256582.937930999</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22763,7 +21873,7 @@
         <v>1256582.937930999</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22796,7 +21906,7 @@
         <v>1256582.937930999</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22829,7 +21939,7 @@
         <v>1256582.937930999</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22862,7 +21972,7 @@
         <v>1256582.937930999</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22895,7 +22005,7 @@
         <v>1189108.977430999</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22928,7 +22038,7 @@
         <v>1189888.077430999</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22961,7 +22071,7 @@
         <v>1189888.077430999</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22994,7 +22104,7 @@
         <v>1205790.168730999</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23027,7 +22137,7 @@
         <v>1203079.563330999</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23060,7 +22170,7 @@
         <v>1203854.463330999</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23093,7 +22203,7 @@
         <v>1176004.873730999</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23126,7 +22236,7 @@
         <v>1176760.873730999</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23159,7 +22269,7 @@
         <v>1117412.851030999</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23192,7 +22302,7 @@
         <v>1122071.471830999</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23258,7 +22368,7 @@
         <v>1122071.471830999</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23291,7 +22401,7 @@
         <v>1122071.471830999</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23852,7 +22962,7 @@
         <v>1067328.341030999</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24182,7 +23292,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24215,7 +23325,7 @@
         <v>1122543.041330999</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24248,7 +23358,7 @@
         <v>1122936.041330999</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24281,7 +23391,7 @@
         <v>1153703.078330999</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24314,7 +23424,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24347,7 +23457,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24380,7 +23490,7 @@
         <v>1222388.491030999</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24413,7 +23523,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24446,7 +23556,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24479,7 +23589,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24512,7 +23622,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24545,7 +23655,7 @@
         <v>1241063.871230999</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24578,7 +23688,7 @@
         <v>1244512.771230999</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24611,7 +23721,7 @@
         <v>1228112.771230999</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24644,7 +23754,7 @@
         <v>1233383.490130999</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24710,7 +23820,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24743,7 +23853,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24809,7 +23919,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24842,7 +23952,7 @@
         <v>1233326.290130999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24875,7 +23985,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24908,7 +24018,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24941,7 +24051,7 @@
         <v>1276599.279330999</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24974,7 +24084,7 @@
         <v>1284081.841730999</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25007,7 +24117,7 @@
         <v>1280727.841730999</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25040,7 +24150,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25073,7 +24183,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25106,7 +24216,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25139,7 +24249,7 @@
         <v>1273598.998830999</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25172,7 +24282,7 @@
         <v>1277163.598830999</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25205,7 +24315,7 @@
         <v>1273561.298830999</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25238,7 +24348,7 @@
         <v>1269765.298830999</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25271,7 +24381,7 @@
         <v>1266022.598830999</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25304,7 +24414,7 @@
         <v>1269722.398830999</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25337,7 +24447,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25370,7 +24480,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25403,7 +24513,7 @@
         <v>999955.1264309987</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25436,7 +24546,7 @@
         <v>1003641.926430999</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25469,7 +24579,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25502,7 +24612,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25535,7 +24645,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25568,7 +24678,7 @@
         <v>976352.9981309987</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25601,7 +24711,7 @@
         <v>980048.8981309987</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25667,7 +24777,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25700,7 +24810,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25733,7 +24843,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25766,7 +24876,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25799,7 +24909,7 @@
         <v>987558.9981309987</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25832,7 +24942,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25865,7 +24975,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25898,7 +25008,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25931,7 +25041,7 @@
         <v>980622.4503309986</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25964,7 +25074,7 @@
         <v>973576.8344309987</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25997,7 +25107,7 @@
         <v>977322.1344309987</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26030,7 +25140,7 @@
         <v>972135.0023309987</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26063,7 +25173,7 @@
         <v>975934.9023309987</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26096,7 +25206,7 @@
         <v>1180239.816930999</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26107,6 +25217,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest FCT.xlsx
+++ b/BackTest/2020-01-25 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,17 +583,11 @@
         <v>-1683370.877485921</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -622,17 +616,11 @@
         <v>-1579028.540085921</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -666,12 +654,10 @@
       <c r="I8" t="n">
         <v>27.2</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -705,10 +691,12 @@
       <c r="I9" t="n">
         <v>27.4</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -739,15 +727,15 @@
         <v>-1543401.345585921</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -782,11 +770,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,11 +803,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,11 +836,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,11 +869,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,11 +902,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,11 +935,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1000,17 +964,11 @@
         <v>-1547614.411885921</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,17 +997,11 @@
         <v>-1547614.411885921</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1034,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1067,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1100,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1133,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1166,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,17 +1195,11 @@
         <v>-1548870.119485921</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,17 +1228,11 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,17 +1261,11 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1384,11 +1298,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,17 +1327,11 @@
         <v>-1548252.119485921</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,17 +1360,11 @@
         <v>-1533252.119485921</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1495,17 +1393,11 @@
         <v>-1533820.019485921</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>27.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,11 +1430,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1571,17 +1459,11 @@
         <v>-1563724.987385921</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>27.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,17 +1492,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1649,17 +1525,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1688,17 +1558,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1727,17 +1591,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1766,17 +1624,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,17 +1657,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1844,17 +1690,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1883,17 +1723,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1922,17 +1756,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1961,17 +1789,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2004,11 +1826,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2037,17 +1855,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2076,17 +1888,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2115,17 +1921,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2154,17 +1954,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2193,17 +1987,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2232,17 +2020,11 @@
         <v>-1563172.387385921</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2271,17 +2053,11 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2310,17 +2086,11 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2349,17 +2119,11 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2388,17 +2152,11 @@
         <v>-1562704.687385921</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2427,17 +2185,11 @@
         <v>-1561799.722385921</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2466,17 +2218,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27.98</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2505,17 +2251,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2544,17 +2284,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2583,17 +2317,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2622,17 +2350,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2661,17 +2383,11 @@
         <v>-1554452.841685921</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2704,11 +2420,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +2453,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2778,11 +2486,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2811,15 +2515,11 @@
         <v>-1446729.192527856</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2848,15 +2548,11 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2885,15 +2581,11 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2922,15 +2614,11 @@
         <v>-1445070.392527856</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2959,15 +2647,11 @@
         <v>-1443429.792527856</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2996,15 +2680,11 @@
         <v>-1507490.119627856</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +2717,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +2750,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +2783,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3148,11 +2816,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3185,11 +2849,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3222,11 +2882,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +2915,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3296,11 +2948,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3333,11 +2981,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3370,11 +3014,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3047,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3444,11 +3080,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3481,11 +3113,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3514,17 +3142,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3553,17 +3175,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3592,17 +3208,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3631,17 +3241,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3670,17 +3274,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3709,17 +3307,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3748,17 +3340,11 @@
         <v>-1509952.652927856</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3787,17 +3373,11 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3826,17 +3406,11 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3865,17 +3439,11 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3904,17 +3472,11 @@
         <v>-1510720.052927856</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3943,17 +3505,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3982,17 +3538,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4021,17 +3571,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4060,17 +3604,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4099,17 +3637,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4138,17 +3670,11 @@
         <v>-1537414.623227856</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4177,17 +3703,11 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +3736,11 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4255,17 +3769,11 @@
         <v>-1537054.623227856</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4294,17 +3802,11 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4333,17 +3835,11 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4372,17 +3868,11 @@
         <v>-1537400.223227856</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4411,17 +3901,11 @@
         <v>-1570659.714810889</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>27.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4450,17 +3934,11 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>27.41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4489,17 +3967,11 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>27.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4528,17 +4000,11 @@
         <v>-1570313.814810889</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>27.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4567,17 +4033,11 @@
         <v>-1569973.014810889</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4606,17 +4066,11 @@
         <v>-1611163.258410889</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4645,17 +4099,11 @@
         <v>-1629068.373910889</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>27.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4684,17 +4132,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4723,17 +4165,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4762,17 +4198,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4801,17 +4231,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4840,17 +4264,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4879,17 +4297,11 @@
         <v>-1628728.473910889</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4918,17 +4330,11 @@
         <v>-1578728.473910889</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4957,17 +4363,11 @@
         <v>-1578728.473910889</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +4400,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4433,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +4466,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +4499,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5148,11 +4532,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5181,17 +4561,11 @@
         <v>-1612589.790110889</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +4598,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +4631,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5294,17 +4660,11 @@
         <v>-1802589.790110889</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5333,17 +4693,11 @@
         <v>-1802274.190110889</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>27.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +4730,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +4763,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +4796,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +4829,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +4862,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5557,17 +4891,11 @@
         <v>-1802590.690110889</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5600,11 +4928,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +4961,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +4994,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5707,17 +5023,11 @@
         <v>-1869476.794310889</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>27.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5060,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +5093,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +5126,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5861,11 +5159,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5898,11 +5192,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5935,11 +5225,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5972,11 +5258,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6009,11 +5291,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6042,17 +5320,11 @@
         <v>-1865404.308310889</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>27.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +5357,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5390,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +5423,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +5456,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +5489,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +5522,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5555,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +5588,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6377,15 +5617,11 @@
         <v>-1890362.450510889</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +5654,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +5687,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6488,15 +5716,11 @@
         <v>-1890035.450510889</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6529,11 +5753,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +5786,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +5819,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +5852,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +5885,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +5918,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +5951,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +5984,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6017,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6050,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +6083,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6116,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6149,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7006,17 +6178,11 @@
         <v>-1903549.923010889</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6215,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7086,11 +6248,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7123,11 +6281,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7160,11 +6314,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +6347,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +6380,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7271,11 +6413,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7308,11 +6446,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +6479,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7382,11 +6512,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +6545,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7456,11 +6578,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7493,11 +6611,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7530,11 +6644,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7567,11 +6677,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +6710,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7641,11 +6743,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +6776,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7715,11 +6809,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7752,11 +6842,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +6875,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +6908,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7863,11 +6941,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7900,11 +6974,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +7007,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7040,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +7073,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +7106,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +7139,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8122,11 +7172,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8159,11 +7205,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8196,11 +7238,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +7271,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8266,15 +7300,11 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8303,15 +7333,11 @@
         <v>-1786972.530110889</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8340,15 +7366,11 @@
         <v>-1785208.430110889</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8377,15 +7399,11 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8414,15 +7432,11 @@
         <v>-1786527.410910889</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +7469,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +7502,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8529,11 +7535,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8562,15 +7564,11 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8599,15 +7597,11 @@
         <v>-1768906.75377786</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +7634,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +7667,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8714,11 +7700,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8751,11 +7733,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +7766,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +7799,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +7832,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +7865,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +7898,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +7931,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9006,17 +7960,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9045,17 +7993,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9084,17 +8026,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9123,17 +8059,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9162,17 +8092,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9201,17 +8125,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9240,15 +8158,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9277,15 +8191,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9314,15 +8224,11 @@
         <v>-1771202.25377786</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9351,15 +8257,11 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9388,15 +8290,11 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9425,15 +8323,11 @@
         <v>-1769287.35377786</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9462,15 +8356,11 @@
         <v>-1767308.75377786</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +8393,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +8426,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +8459,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +8492,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +8525,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +8558,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +8591,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +8624,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +8657,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +8690,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9869,15 +8719,11 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9906,15 +8752,11 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9943,15 +8785,11 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9980,15 +8818,11 @@
         <v>-1708671.088349289</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +8855,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +8888,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +8921,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +8954,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +8987,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +9020,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +9053,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +9086,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +9119,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +9152,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +9185,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +9218,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +9251,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +9284,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10539,11 +9317,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +9350,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10609,15 +9379,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10646,15 +9412,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +9449,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +9482,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10761,11 +9515,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10798,11 +9548,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +9581,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +9614,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +9647,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10946,11 +9680,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10979,15 +9709,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11016,15 +9742,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11053,15 +9775,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11090,15 +9808,11 @@
         <v>-1695354.251949288</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +9845,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +9878,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +9911,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +9944,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +9977,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +10010,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +10043,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11390,11 +10076,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +10109,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +10142,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +10175,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +10208,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11575,11 +10241,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +10274,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +10307,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +10340,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11723,11 +10373,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11760,11 +10406,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +10439,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +10472,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +10505,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +10538,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +10571,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11982,11 +10604,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +10637,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12056,11 +10670,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +10703,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +10736,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12163,15 +10765,11 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12200,15 +10798,11 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12237,15 +10831,11 @@
         <v>2112039.957850712</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12274,15 +10864,11 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12311,15 +10897,11 @@
         <v>2087821.599050712</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12348,15 +10930,11 @@
         <v>2067194.252650712</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12385,15 +10963,11 @@
         <v>2088361.951150712</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12422,15 +10996,11 @@
         <v>2064262.156450712</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12459,15 +11029,11 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12496,15 +11062,11 @@
         <v>2031604.323050712</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12533,15 +11095,11 @@
         <v>2005978.850350712</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +11132,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11165,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +11198,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +11231,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +11264,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +11297,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +11330,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12829,16 +11359,14 @@
         <v>1960577.674350712</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
       <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
@@ -13161,7 +11689,7 @@
         <v>1881617.976250713</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13227,7 +11755,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13260,7 +11788,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13293,7 +11821,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13359,7 +11887,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13392,7 +11920,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13425,7 +11953,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13458,7 +11986,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13491,7 +12019,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13524,7 +12052,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13557,7 +12085,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13590,7 +12118,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13623,7 +12151,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13656,7 +12184,7 @@
         <v>1884905.782950713</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13689,7 +12217,7 @@
         <v>1886966.274650712</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13722,7 +12250,7 @@
         <v>1886373.474650712</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13755,7 +12283,7 @@
         <v>1882371.271850712</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -16890,7 +15418,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16923,7 +15451,7 @@
         <v>1704697.232730999</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17253,7 +15781,7 @@
         <v>1679873.541230999</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17385,7 +15913,7 @@
         <v>1652111.613830999</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17484,7 +16012,7 @@
         <v>1657416.213830999</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17517,7 +16045,7 @@
         <v>1657416.213830999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17748,7 +16276,7 @@
         <v>1643232.526930999</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18045,7 +16573,7 @@
         <v>1658290.163230999</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18177,7 +16705,7 @@
         <v>1617264.367730999</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18408,7 +16936,7 @@
         <v>1617508.688630999</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18507,7 +17035,7 @@
         <v>1617508.688630999</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18606,7 +17134,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18705,7 +17233,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18738,7 +17266,7 @@
         <v>1633940.158930999</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18771,7 +17299,7 @@
         <v>1637161.558930999</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18804,7 +17332,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18903,7 +17431,7 @@
         <v>1633851.758930999</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19035,7 +17563,7 @@
         <v>1640308.100630999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19200,7 +17728,7 @@
         <v>1630665.185930999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -22863,7 +21391,7 @@
         <v>1149376.627630999</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22896,7 +21424,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22929,7 +21457,7 @@
         <v>1094477.355930999</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22962,7 +21490,7 @@
         <v>1067328.341030999</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23259,7 +21787,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23292,7 +21820,7 @@
         <v>1119296.941330999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23325,7 +21853,7 @@
         <v>1122543.041330999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23358,7 +21886,7 @@
         <v>1122936.041330999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23391,7 +21919,7 @@
         <v>1153703.078330999</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23424,7 +21952,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23457,7 +21985,7 @@
         <v>1219072.191030999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23490,7 +22018,7 @@
         <v>1222388.491030999</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23523,7 +22051,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23556,7 +22084,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23589,7 +22117,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23622,7 +22150,7 @@
         <v>1222562.491030999</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23655,7 +22183,7 @@
         <v>1241063.871230999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23688,7 +22216,7 @@
         <v>1244512.771230999</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23721,7 +22249,7 @@
         <v>1228112.771230999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23754,7 +22282,7 @@
         <v>1233383.490130999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23787,7 +22315,7 @@
         <v>1233383.490130999</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23919,7 +22447,7 @@
         <v>1229920.290130999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23985,7 +22513,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24018,7 +22546,7 @@
         <v>1280050.779330999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24051,7 +22579,7 @@
         <v>1276599.279330999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24084,7 +22612,7 @@
         <v>1284081.841730999</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24117,7 +22645,7 @@
         <v>1280727.841730999</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24150,7 +22678,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24183,7 +22711,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24216,7 +22744,7 @@
         <v>1277282.841730999</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24249,7 +22777,7 @@
         <v>1273598.998830999</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24282,7 +22810,7 @@
         <v>1277163.598830999</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24315,7 +22843,7 @@
         <v>1273561.298830999</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24348,7 +22876,7 @@
         <v>1269765.298830999</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24381,7 +22909,7 @@
         <v>1266022.598830999</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24414,7 +22942,7 @@
         <v>1269722.398830999</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24447,7 +22975,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24480,7 +23008,7 @@
         <v>1247722.398830999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24513,7 +23041,7 @@
         <v>999955.1264309987</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24546,7 +23074,7 @@
         <v>1003641.926430999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24579,7 +23107,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24612,7 +23140,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24645,7 +23173,7 @@
         <v>942567.8585309987</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24678,7 +23206,7 @@
         <v>976352.9981309987</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24711,7 +23239,7 @@
         <v>980048.8981309987</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24777,7 +23305,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24810,7 +23338,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24843,7 +23371,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24876,7 +23404,7 @@
         <v>983877.3981309987</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24909,7 +23437,7 @@
         <v>987558.9981309987</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24942,7 +23470,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24975,7 +23503,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25008,7 +23536,7 @@
         <v>991344.5981309987</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25041,7 +23569,7 @@
         <v>980622.4503309986</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25074,7 +23602,7 @@
         <v>973576.8344309987</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25107,7 +23635,7 @@
         <v>977322.1344309987</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25140,7 +23668,7 @@
         <v>972135.0023309987</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25173,7 +23701,7 @@
         <v>975934.9023309987</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25206,7 +23734,7 @@
         <v>1180239.816930999</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25217,6 +23745,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>